--- a/aktiesparekonto_vs_etoro.xlsx
+++ b/aktiesparekonto_vs_etoro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/720a6d9262bb3512/Documents/Projekt Op/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{19F2BEB0-FD8E-489E-8919-7E4880B5E068}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CDE12BD6-D8DC-41A0-84D5-645EDE561298}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{19F2BEB0-FD8E-489E-8919-7E4880B5E068}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A4161E41-E4D8-40CA-B084-351CA2377F2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Første halve år" sheetId="1" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,8 +579,8 @@
         <v>7</v>
       </c>
       <c r="B16" s="2">
-        <f>D3*E3*A3*2*B13</f>
-        <v>932.28944000000035</v>
+        <f>E3*A3*2*29</f>
+        <v>2320</v>
       </c>
       <c r="C16" s="2">
         <f>D3*E3*A3*2*C13</f>
@@ -592,7 +592,7 @@
       </c>
       <c r="E16" s="2">
         <f>SUM(B16:D16)</f>
-        <v>2137.6512400000006</v>
+        <v>3525.3618000000006</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -624,7 +624,7 @@
       </c>
       <c r="E17">
         <f>E16/B3</f>
-        <v>0.10688256200000003</v>
+        <v>0.17626809000000002</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="E19" s="2">
         <f>B3*(C3-E17) -B3</f>
-        <v>74398.52876000003</v>
+        <v>73010.818200000038</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="E24" s="1">
         <f>E19 * (1-E21)</f>
-        <v>61750.778870800023</v>
+        <v>60598.979106000028</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068429A-6D16-4360-ABBB-A36196CAE15D}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,6 +1168,12 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>10000*B13</f>
+        <v>20</v>
+      </c>
+    </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L27" s="2"/>
     </row>
